--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -392,7 +392,7 @@
       <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="30.57" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.49" customWidth="1" style="7" min="2" max="2"/>
@@ -437,30 +437,744 @@
         </is>
       </c>
     </row>
-    <row r="2" s="12"/>
-    <row r="3" s="12"/>
-    <row r="4" s="12"/>
-    <row r="5" s="12"/>
-    <row r="6" s="12"/>
-    <row r="7" s="12"/>
-    <row r="8" s="12"/>
-    <row r="9" s="12"/>
-    <row r="10" s="12"/>
-    <row r="11" s="12"/>
-    <row r="12" s="12"/>
-    <row r="13" s="12"/>
-    <row r="14" s="12"/>
-    <row r="15" s="12"/>
-    <row r="16" s="12"/>
-    <row r="17" s="12"/>
-    <row r="18" s="12"/>
-    <row r="19" s="12"/>
-    <row r="20" s="12"/>
-    <row r="21" s="12"/>
-    <row r="22" s="12"/>
-    <row r="23" s="12"/>
-    <row r="24" s="12"/>
-    <row r="25" s="12"/>
+    <row r="2" ht="13.7" customHeight="1" s="12">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Да
+Да
+Ввы</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>24.02.25</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>22:53:27</t>
+        </is>
+      </c>
+      <c r="F2" s="14" t="inlineStr"/>
+    </row>
+    <row r="3" ht="13.7" customHeight="1" s="12">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Мяу</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>10:52:02</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="inlineStr"/>
+    </row>
+    <row r="4" ht="13.7" customHeight="1" s="12">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Ыыы</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>11:10:23</t>
+        </is>
+      </c>
+      <c r="F4" s="14" t="inlineStr"/>
+    </row>
+    <row r="5" ht="13.7" customHeight="1" s="12">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Ыыыы</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>11:10:52</t>
+        </is>
+      </c>
+      <c r="F5" s="14" t="inlineStr"/>
+    </row>
+    <row r="6" ht="13.7" customHeight="1" s="12">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Ты
+Your</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>13:26:48</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="inlineStr"/>
+    </row>
+    <row r="7" ht="13.7" customHeight="1" s="12">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>13:31:11</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="inlineStr"/>
+    </row>
+    <row r="8" ht="13.7" customHeight="1" s="12">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Dl</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>13:36:38</t>
+        </is>
+      </c>
+      <c r="F8" s="14" t="inlineStr"/>
+    </row>
+    <row r="9" ht="13.7" customHeight="1" s="12">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>H it</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>13:51:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.7" customHeight="1" s="12">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>ЭЭЭЭЭЭ
+Папа
+Проо
+Еек
+ПО</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>13:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.7" customHeight="1" s="12">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>Безгранично</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>13:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.7" customHeight="1" s="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>Най
+Блин</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>13:55:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.7" customHeight="1" s="12">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>Ге
+Кар</t>
+        </is>
+      </c>
+      <c r="D13" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>13:55:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="13.7" customHeight="1" s="12">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>Мяу
+111</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>14:18:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="13.7" customHeight="1" s="12">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>Hey
+Fdffffffff
+B5
+No</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>14:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="13.7" customHeight="1" s="12">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>Тут</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>14:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="13.7" customHeight="1" s="12">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>Первый
+Первый</t>
+        </is>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>14:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="13.7" customHeight="1" s="12">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>Второй</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>14:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="13.7" customHeight="1" s="12">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <t>Сообщение</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>16:30:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="13.7" customHeight="1" s="12">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>+79302590039</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>Маячок</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>TestMayak SE-6.3q
+05-01-2020 06:22:16
+PASS: 2000
+IMEI: 862877033585
+76.9.114.139.20102
+I3=0
+Черный ящик: включен.
+FLASH: 98304/0/0
+T1:
+55-12-2019 12:00, 01D,F
+T2: 28-01-2020 14:00, 30D,G
+Датчик=0/1 (вык
+лючен)
+Питание:выкл
+Бат:6.01в(100%) T:+24C
+Режим:спящий
+смс#30</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>16:46:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="13.7" customHeight="1" s="12">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>+79302590039</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Маячок</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>TestMayak SE-6.3q
+05-01-2020 06:31:13
+PASS: 2000
+IMEI: 862877033585
+553
+1: +79200200090
+SETUP=0025560031611015601000000
+I1=m2m.msk
+I2=1
+76.9.114.139.20102
+I3=0
+Черный ящик: включен.
+FLASH: 98304/0/0
+T1:
+55-12-2019 12:00, 01D,F
+T2: 28-01-2020 14:00, 30D,G
+Датчик=0/1 (вык
+лючен)
+Питание:выкл
+Бат:5.88в(90%) T:+25C
+Режим:спящий
+смс#32</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>17:00:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="13.7" customHeight="1" s="12">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>17:00:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="13.7" customHeight="1" s="12">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C23" s="11" t="inlineStr">
+        <is>
+          <t>Мяу
+Иван</t>
+        </is>
+      </c>
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>17:01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="13.7" customHeight="1" s="12">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Мяу
+Go
+Cf
+Yh
+Rh
+JR
+Dh
+HR
+FH
+HD
+Hh
+DT
+Gy
+YG
+Tr
+Dg
+Hh
+Rg
+No
+Cash get
+Go
+Do l
+My
+B5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17:06:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="13.7" customHeight="1" s="12">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1
+2
+3
+4
+5
+6
+7
+8
+9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.02.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17:08:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -437,11 +437,141 @@
         </is>
       </c>
     </row>
-    <row r="2" s="12"/>
-    <row r="3" s="12"/>
-    <row r="4" s="12"/>
-    <row r="5" s="12"/>
-    <row r="6" s="12"/>
+    <row r="2" ht="13.7" customHeight="1" s="12">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Тестовое сообщение</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>26.02.25</t>
+        </is>
+      </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>22:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.7" customHeight="1" s="12">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Подопытный</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Тестовое сообщение 1</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>26.02.25</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>22:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.7" customHeight="1" s="12">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Подопытный</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Тестовое сообщение 2</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>26.02.25</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>22:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.7" customHeight="1" s="12">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Подопытный</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>26.02.25</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>22:37:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.7" customHeight="1" s="12">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Подопытный</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Мяу!</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.02.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>00:12:17</t>
+        </is>
+      </c>
+    </row>
     <row r="7" s="12"/>
     <row r="8" s="12"/>
     <row r="9" s="12"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -392,7 +392,7 @@
       <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="30.57" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.49" customWidth="1" style="7" min="2" max="2"/>
@@ -463,6 +463,7 @@
           <t>22:34:17</t>
         </is>
       </c>
+      <c r="F2" s="14" t="inlineStr"/>
     </row>
     <row r="3" ht="13.7" customHeight="1" s="12">
       <c r="A3" s="11" t="inlineStr">
@@ -490,6 +491,7 @@
           <t>22:35:57</t>
         </is>
       </c>
+      <c r="F3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="13.7" customHeight="1" s="12">
       <c r="A4" s="11" t="inlineStr">
@@ -517,6 +519,7 @@
           <t>22:35:57</t>
         </is>
       </c>
+      <c r="F4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="13.7" customHeight="1" s="12">
       <c r="A5" s="11" t="inlineStr">
@@ -544,36 +547,93 @@
           <t>22:37:19</t>
         </is>
       </c>
+      <c r="F5" s="14" t="inlineStr"/>
     </row>
     <row r="6" ht="13.7" customHeight="1" s="12">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>+79512870557</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Подопытный</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Мяу!</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>27.02.25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>00:12:17</t>
         </is>
       </c>
-    </row>
-    <row r="7" s="12"/>
-    <row r="8" s="12"/>
+      <c r="F6" s="14" t="inlineStr"/>
+    </row>
+    <row r="7" ht="13.7" customHeight="1" s="12">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Ответ на сообщение</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>27.02.25</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>13:43:13</t>
+        </is>
+      </c>
+      <c r="F7" s="14" t="inlineStr"/>
+    </row>
+    <row r="8" ht="13.7" customHeight="1" s="12">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ответ на сообщение!
+Ответ на второе</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.02.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13:51:44</t>
+        </is>
+      </c>
+      <c r="F8" s="14" t="inlineStr"/>
+    </row>
     <row r="9" s="12"/>
     <row r="10" s="12"/>
     <row r="11" s="12"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -392,7 +392,7 @@
       <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="30.57" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.49" customWidth="1" style="7" min="2" max="2"/>
@@ -606,28 +606,28 @@
       <c r="F7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="13.7" customHeight="1" s="12">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>П</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Ответ на сообщение!
 Ответ на второе</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>27.02.25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>13:51:44</t>
         </is>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -634,10 +634,146 @@
       </c>
       <c r="F8" s="14" t="inlineStr"/>
     </row>
-    <row r="9" s="12"/>
-    <row r="10" s="12"/>
-    <row r="11" s="12"/>
-    <row r="12" s="12"/>
+    <row r="9" ht="13.7" customHeight="1" s="12">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>+79302590039</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Маячок</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>TestMayak SE-6.3q
+08-01-2020 03:13:14
+PASS: 2000
+IMEI: 862877033585
+553
+1: +79200200090
+SETUP=1025560031611015601000000
+I1=m2m.msk
+I2=1
+76.9.114.139.20102
+I3=0
+Черный ящик: включен.
+FLASH: 98304/0/0
+T1:
+55-12-2019 12:00, 01D,F
+T2: 28-01-2020 14:00, 30D,G
+Датчик=0/1 (вык
+лючен)
+Питание:выкл
+Бат:5.90в(93%) T:+26C
+Режим:онлайн
+смс#35</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>28.02.25</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>13:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.7" customHeight="1" s="12">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>+79302590039</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Маячок</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TestMayak SE-6.3q
+08-01-2020 03:15:08
+Команда принята.
+T1: 55-12-20
+19 12:00, 01D,F
+T2: 28-01-2020 14:00, 30D,G
+Датчик=0/1 (выключен)
+П
+итание:выкл
+Бат:5.88в(90%) T:+26C
+Режим:онлайн
+смс#36</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.02.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.7" customHeight="1" s="12">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fusjsjejjfuxuxududuhrbtnfjdjjdidjfuugfuuf8r8ejejef</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.02.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.7" customHeight="1" s="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>+79512870557</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Маячок2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hao fix off off kHz to us GMV BF is kHz</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.02.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:36:38</t>
+        </is>
+      </c>
+    </row>
     <row r="13" s="12"/>
     <row r="14" s="12"/>
     <row r="15" s="12"/>
